--- a/natmiOut/OldD4/LR-pairs_lrc2p/Sfrp2-Fzd5.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Sfrp2-Fzd5.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,22 +76,25 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
+    <t>sCs</t>
+  </si>
+  <si>
     <t>Sfrp2</t>
   </si>
   <si>
     <t>Fzd5</t>
-  </si>
-  <si>
-    <t>M1</t>
-  </si>
-  <si>
-    <t>M2</t>
-  </si>
-  <si>
-    <t>sCs</t>
   </si>
 </sst>
 </file>
@@ -449,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,10 +525,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -534,49 +537,49 @@
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>552.928822837507</v>
+        <v>0.8829606666666666</v>
       </c>
       <c r="H2">
-        <v>552.928822837507</v>
+        <v>2.648882</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.001394130482628961</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.001395203755376151</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>9.701505011139769</v>
+        <v>2.676920666666666</v>
       </c>
       <c r="N2">
-        <v>9.701505011139769</v>
+        <v>8.030761999999999</v>
       </c>
       <c r="O2">
-        <v>0.5113332859643277</v>
+        <v>0.1137411923116975</v>
       </c>
       <c r="P2">
-        <v>0.5113332859643277</v>
+        <v>0.1167596329733683</v>
       </c>
       <c r="Q2">
-        <v>5364.241745561688</v>
+        <v>2.363615656453777</v>
       </c>
       <c r="R2">
-        <v>5364.241745561688</v>
+        <v>21.272540908084</v>
       </c>
       <c r="S2">
-        <v>0.5113332859643277</v>
+        <v>0.0001585700633323003</v>
       </c>
       <c r="T2">
-        <v>0.5113332859643277</v>
+        <v>0.0001629034784007846</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" t="s">
         <v>21</v>
       </c>
-      <c r="C3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" t="s">
-        <v>23</v>
-      </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>552.928822837507</v>
+        <v>0.8829606666666666</v>
       </c>
       <c r="H3">
-        <v>552.928822837507</v>
+        <v>2.648882</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.001394130482628961</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.001395203755376151</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.89917456165405</v>
+        <v>10.75807</v>
       </c>
       <c r="N3">
-        <v>2.89917456165405</v>
+        <v>32.27421</v>
       </c>
       <c r="O3">
-        <v>0.1528056166020154</v>
+        <v>0.4571057050773153</v>
       </c>
       <c r="P3">
-        <v>0.1528056166020154</v>
+        <v>0.4692362834442626</v>
       </c>
       <c r="Q3">
-        <v>1603.037177575819</v>
+        <v>9.498952659246665</v>
       </c>
       <c r="R3">
-        <v>1603.037177575819</v>
+        <v>85.49057393321999</v>
       </c>
       <c r="S3">
-        <v>0.1528056166020154</v>
+        <v>0.0006372649972318891</v>
       </c>
       <c r="T3">
-        <v>0.1528056166020154</v>
+        <v>0.0006546802248201835</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="D4" t="s">
-        <v>24</v>
-      </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>552.928822837507</v>
+        <v>0.8829606666666666</v>
       </c>
       <c r="H4">
-        <v>552.928822837507</v>
+        <v>2.648882</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.001394130482628961</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.001395203755376151</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.56533731985262</v>
+        <v>3.564735333333333</v>
       </c>
       <c r="N4">
-        <v>4.56533731985262</v>
+        <v>10.694206</v>
       </c>
       <c r="O4">
-        <v>0.2406233806626218</v>
+        <v>0.1514640505181089</v>
       </c>
       <c r="P4">
-        <v>0.2406233806626218</v>
+        <v>0.1554835727296604</v>
       </c>
       <c r="Q4">
-        <v>2524.306590122249</v>
+        <v>3.147521086410222</v>
       </c>
       <c r="R4">
-        <v>2524.306590122249</v>
+        <v>28.327689777692</v>
       </c>
       <c r="S4">
-        <v>0.2406233806626218</v>
+        <v>0.0002111606498497485</v>
       </c>
       <c r="T4">
-        <v>0.2406233806626218</v>
+        <v>0.0002169312645717232</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,61 +711,1363 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G5">
+        <v>0.8829606666666666</v>
+      </c>
+      <c r="H5">
+        <v>2.648882</v>
+      </c>
+      <c r="I5">
+        <v>0.001394130482628961</v>
+      </c>
+      <c r="J5">
+        <v>0.001395203755376151</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>4.710187333333333</v>
+      </c>
+      <c r="N5">
+        <v>14.130562</v>
+      </c>
+      <c r="O5">
+        <v>0.2001338067190093</v>
+      </c>
+      <c r="P5">
+        <v>0.2054449170361947</v>
+      </c>
+      <c r="Q5">
+        <v>4.158910147964888</v>
+      </c>
+      <c r="R5">
+        <v>37.430191331684</v>
+      </c>
+      <c r="S5">
+        <v>0.0002790126405515437</v>
+      </c>
+      <c r="T5">
+        <v>0.0002866375197718408</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G6">
+        <v>0.8829606666666666</v>
+      </c>
+      <c r="H6">
+        <v>2.648882</v>
+      </c>
+      <c r="I6">
+        <v>0.001394130482628961</v>
+      </c>
+      <c r="J6">
+        <v>0.001395203755376151</v>
+      </c>
+      <c r="K6">
+        <v>2</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>1.8252775</v>
+      </c>
+      <c r="N6">
+        <v>3.650555</v>
+      </c>
+      <c r="O6">
+        <v>0.07755524537386906</v>
+      </c>
+      <c r="P6">
+        <v>0.05307559381651387</v>
+      </c>
+      <c r="Q6">
+        <v>1.611648238251666</v>
+      </c>
+      <c r="R6">
+        <v>9.669889429509999</v>
+      </c>
+      <c r="S6">
+        <v>0.0001081221316634796</v>
+      </c>
+      <c r="T6">
+        <v>7.40512678116194E-05</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
         <v>21</v>
       </c>
-      <c r="C5" t="s">
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>629.5845946666667</v>
+      </c>
+      <c r="H7">
+        <v>1888.753784</v>
+      </c>
+      <c r="I7">
+        <v>0.9940681481678673</v>
+      </c>
+      <c r="J7">
+        <v>0.9948334325265211</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M7">
+        <v>2.676920666666666</v>
+      </c>
+      <c r="N7">
+        <v>8.030761999999999</v>
+      </c>
+      <c r="O7">
+        <v>0.1137411923116975</v>
+      </c>
+      <c r="P7">
+        <v>0.1167596329733683</v>
+      </c>
+      <c r="Q7">
+        <v>1685.348012878156</v>
+      </c>
+      <c r="R7">
+        <v>15168.13211590341</v>
+      </c>
+      <c r="S7">
+        <v>0.1130664964116944</v>
+      </c>
+      <c r="T7">
+        <v>0.1161563864514328</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>629.5845946666667</v>
+      </c>
+      <c r="H8">
+        <v>1888.753784</v>
+      </c>
+      <c r="I8">
+        <v>0.9940681481678673</v>
+      </c>
+      <c r="J8">
+        <v>0.9948334325265211</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>10.75807</v>
+      </c>
+      <c r="N8">
+        <v>32.27421</v>
+      </c>
+      <c r="O8">
+        <v>0.4571057050773153</v>
+      </c>
+      <c r="P8">
+        <v>0.4692362834442626</v>
+      </c>
+      <c r="Q8">
+        <v>6773.115140345626</v>
+      </c>
+      <c r="R8">
+        <v>60958.03626311063</v>
+      </c>
+      <c r="S8">
+        <v>0.4543942217631741</v>
+      </c>
+      <c r="T8">
+        <v>0.4668119425248434</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
         <v>22</v>
       </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>552.928822837507</v>
-      </c>
-      <c r="H5">
-        <v>552.928822837507</v>
-      </c>
-      <c r="I5">
-        <v>1</v>
-      </c>
-      <c r="J5">
-        <v>1</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>1.80694121009788</v>
-      </c>
-      <c r="N5">
-        <v>1.80694121009788</v>
-      </c>
-      <c r="O5">
-        <v>0.09523771677103515</v>
-      </c>
-      <c r="P5">
-        <v>0.09523771677103515</v>
-      </c>
-      <c r="Q5">
-        <v>999.1098762360012</v>
-      </c>
-      <c r="R5">
-        <v>999.1098762360012</v>
-      </c>
-      <c r="S5">
-        <v>0.09523771677103515</v>
-      </c>
-      <c r="T5">
-        <v>0.09523771677103515</v>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>629.5845946666667</v>
+      </c>
+      <c r="H9">
+        <v>1888.753784</v>
+      </c>
+      <c r="I9">
+        <v>0.9940681481678673</v>
+      </c>
+      <c r="J9">
+        <v>0.9948334325265211</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>3.564735333333333</v>
+      </c>
+      <c r="N9">
+        <v>10.694206</v>
+      </c>
+      <c r="O9">
+        <v>0.1514640505181089</v>
+      </c>
+      <c r="P9">
+        <v>0.1554835727296604</v>
+      </c>
+      <c r="Q9">
+        <v>2244.302449930612</v>
+      </c>
+      <c r="R9">
+        <v>20198.7220493755</v>
+      </c>
+      <c r="S9">
+        <v>0.1505655882125408</v>
+      </c>
+      <c r="T9">
+        <v>0.1546802563601351</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>629.5845946666667</v>
+      </c>
+      <c r="H10">
+        <v>1888.753784</v>
+      </c>
+      <c r="I10">
+        <v>0.9940681481678673</v>
+      </c>
+      <c r="J10">
+        <v>0.9948334325265211</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>4.710187333333333</v>
+      </c>
+      <c r="N10">
+        <v>14.130562</v>
+      </c>
+      <c r="O10">
+        <v>0.2001338067190093</v>
+      </c>
+      <c r="P10">
+        <v>0.2054449170361947</v>
+      </c>
+      <c r="Q10">
+        <v>2965.461383060734</v>
+      </c>
+      <c r="R10">
+        <v>26689.15244754661</v>
+      </c>
+      <c r="S10">
+        <v>0.1989466426309515</v>
+      </c>
+      <c r="T10">
+        <v>0.204383472010244</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>629.5845946666667</v>
+      </c>
+      <c r="H11">
+        <v>1888.753784</v>
+      </c>
+      <c r="I11">
+        <v>0.9940681481678673</v>
+      </c>
+      <c r="J11">
+        <v>0.9948334325265211</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>1.8252775</v>
+      </c>
+      <c r="N11">
+        <v>3.650555</v>
+      </c>
+      <c r="O11">
+        <v>0.07755524537386906</v>
+      </c>
+      <c r="P11">
+        <v>0.05307559381651387</v>
+      </c>
+      <c r="Q11">
+        <v>1149.166594991687</v>
+      </c>
+      <c r="R11">
+        <v>6894.99956995012</v>
+      </c>
+      <c r="S11">
+        <v>0.07709519914950656</v>
+      </c>
+      <c r="T11">
+        <v>0.0528013751798659</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G12">
+        <v>0.3058923333333334</v>
+      </c>
+      <c r="H12">
+        <v>0.9176770000000001</v>
+      </c>
+      <c r="I12">
+        <v>0.0004829816801607234</v>
+      </c>
+      <c r="J12">
+        <v>0.000483353504090526</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+      <c r="L12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M12">
+        <v>2.676920666666666</v>
+      </c>
+      <c r="N12">
+        <v>8.030761999999999</v>
+      </c>
+      <c r="O12">
+        <v>0.1137411923116975</v>
+      </c>
+      <c r="P12">
+        <v>0.1167596329733683</v>
+      </c>
+      <c r="Q12">
+        <v>0.8188495088748889</v>
+      </c>
+      <c r="R12">
+        <v>7.369645579874</v>
+      </c>
+      <c r="S12">
+        <v>5.493491216618761E-05</v>
+      </c>
+      <c r="T12">
+        <v>5.64361777340013E-05</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>0.3058923333333334</v>
+      </c>
+      <c r="H13">
+        <v>0.9176770000000001</v>
+      </c>
+      <c r="I13">
+        <v>0.0004829816801607234</v>
+      </c>
+      <c r="J13">
+        <v>0.000483353504090526</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>10.75807</v>
+      </c>
+      <c r="N13">
+        <v>32.27421</v>
+      </c>
+      <c r="O13">
+        <v>0.4571057050773153</v>
+      </c>
+      <c r="P13">
+        <v>0.4692362834442626</v>
+      </c>
+      <c r="Q13">
+        <v>3.290811134463333</v>
+      </c>
+      <c r="R13">
+        <v>29.61730021017</v>
+      </c>
+      <c r="S13">
+        <v>0.0002207736814492938</v>
+      </c>
+      <c r="T13">
+        <v>0.0002268070018491996</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G14">
+        <v>0.3058923333333334</v>
+      </c>
+      <c r="H14">
+        <v>0.9176770000000001</v>
+      </c>
+      <c r="I14">
+        <v>0.0004829816801607234</v>
+      </c>
+      <c r="J14">
+        <v>0.000483353504090526</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>3.564735333333333</v>
+      </c>
+      <c r="N14">
+        <v>10.694206</v>
+      </c>
+      <c r="O14">
+        <v>0.1514640505181089</v>
+      </c>
+      <c r="P14">
+        <v>0.1554835727296604</v>
+      </c>
+      <c r="Q14">
+        <v>1.090425208829111</v>
+      </c>
+      <c r="R14">
+        <v>9.813826879462001</v>
+      </c>
+      <c r="S14">
+        <v>7.315436160318493E-05</v>
+      </c>
+      <c r="T14">
+        <v>7.515352970739552E-05</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G15">
+        <v>0.3058923333333334</v>
+      </c>
+      <c r="H15">
+        <v>0.9176770000000001</v>
+      </c>
+      <c r="I15">
+        <v>0.0004829816801607234</v>
+      </c>
+      <c r="J15">
+        <v>0.000483353504090526</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>4.710187333333333</v>
+      </c>
+      <c r="N15">
+        <v>14.130562</v>
+      </c>
+      <c r="O15">
+        <v>0.2001338067190093</v>
+      </c>
+      <c r="P15">
+        <v>0.2054449170361947</v>
+      </c>
+      <c r="Q15">
+        <v>1.440810193830445</v>
+      </c>
+      <c r="R15">
+        <v>12.967291744474</v>
+      </c>
+      <c r="S15">
+        <v>9.666096222610861E-05</v>
+      </c>
+      <c r="T15">
+        <v>9.930252054703213E-05</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G16">
+        <v>0.3058923333333334</v>
+      </c>
+      <c r="H16">
+        <v>0.9176770000000001</v>
+      </c>
+      <c r="I16">
+        <v>0.0004829816801607234</v>
+      </c>
+      <c r="J16">
+        <v>0.000483353504090526</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>1.8252775</v>
+      </c>
+      <c r="N16">
+        <v>3.650555</v>
+      </c>
+      <c r="O16">
+        <v>0.07755524537386906</v>
+      </c>
+      <c r="P16">
+        <v>0.05307559381651387</v>
+      </c>
+      <c r="Q16">
+        <v>0.5583383934558334</v>
+      </c>
+      <c r="R16">
+        <v>3.350030360735</v>
+      </c>
+      <c r="S16">
+        <v>3.745776271594845E-05</v>
+      </c>
+      <c r="T16">
+        <v>2.565427425289744E-05</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>1.106424333333333</v>
+      </c>
+      <c r="H17">
+        <v>3.319273</v>
+      </c>
+      <c r="I17">
+        <v>0.001746963311112869</v>
+      </c>
+      <c r="J17">
+        <v>0.001748308212566156</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M17">
+        <v>2.676920666666666</v>
+      </c>
+      <c r="N17">
+        <v>8.030761999999999</v>
+      </c>
+      <c r="O17">
+        <v>0.1137411923116975</v>
+      </c>
+      <c r="P17">
+        <v>0.1167596329733683</v>
+      </c>
+      <c r="Q17">
+        <v>2.961810164002888</v>
+      </c>
+      <c r="R17">
+        <v>26.656291476026</v>
+      </c>
+      <c r="S17">
+        <v>0.0001987016899307687</v>
+      </c>
+      <c r="T17">
+        <v>0.00020413182522355</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G18">
+        <v>1.106424333333333</v>
+      </c>
+      <c r="H18">
+        <v>3.319273</v>
+      </c>
+      <c r="I18">
+        <v>0.001746963311112869</v>
+      </c>
+      <c r="J18">
+        <v>0.001748308212566156</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>10.75807</v>
+      </c>
+      <c r="N18">
+        <v>32.27421</v>
+      </c>
+      <c r="O18">
+        <v>0.4571057050773153</v>
+      </c>
+      <c r="P18">
+        <v>0.4692362834442626</v>
+      </c>
+      <c r="Q18">
+        <v>11.90299042770333</v>
+      </c>
+      <c r="R18">
+        <v>107.12691384933</v>
+      </c>
+      <c r="S18">
+        <v>0.0007985468960704494</v>
+      </c>
+      <c r="T18">
+        <v>0.0008203696479796249</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G19">
+        <v>1.106424333333333</v>
+      </c>
+      <c r="H19">
+        <v>3.319273</v>
+      </c>
+      <c r="I19">
+        <v>0.001746963311112869</v>
+      </c>
+      <c r="J19">
+        <v>0.001748308212566156</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>3.564735333333333</v>
+      </c>
+      <c r="N19">
+        <v>10.694206</v>
+      </c>
+      <c r="O19">
+        <v>0.1514640505181089</v>
+      </c>
+      <c r="P19">
+        <v>0.1554835727296604</v>
+      </c>
+      <c r="Q19">
+        <v>3.944109914693111</v>
+      </c>
+      <c r="R19">
+        <v>35.496989232238</v>
+      </c>
+      <c r="S19">
+        <v>0.0002646021392076825</v>
+      </c>
+      <c r="T19">
+        <v>0.0002718332071223926</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G20">
+        <v>1.106424333333333</v>
+      </c>
+      <c r="H20">
+        <v>3.319273</v>
+      </c>
+      <c r="I20">
+        <v>0.001746963311112869</v>
+      </c>
+      <c r="J20">
+        <v>0.001748308212566156</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>4.710187333333333</v>
+      </c>
+      <c r="N20">
+        <v>14.130562</v>
+      </c>
+      <c r="O20">
+        <v>0.2001338067190093</v>
+      </c>
+      <c r="P20">
+        <v>0.2054449170361947</v>
+      </c>
+      <c r="Q20">
+        <v>5.211465880158443</v>
+      </c>
+      <c r="R20">
+        <v>46.903192921426</v>
+      </c>
+      <c r="S20">
+        <v>0.0003496264176514636</v>
+      </c>
+      <c r="T20">
+        <v>0.0003591810356843518</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G21">
+        <v>1.106424333333333</v>
+      </c>
+      <c r="H21">
+        <v>3.319273</v>
+      </c>
+      <c r="I21">
+        <v>0.001746963311112869</v>
+      </c>
+      <c r="J21">
+        <v>0.001748308212566156</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>1.8252775</v>
+      </c>
+      <c r="N21">
+        <v>3.650555</v>
+      </c>
+      <c r="O21">
+        <v>0.07755524537386906</v>
+      </c>
+      <c r="P21">
+        <v>0.05307559381651387</v>
+      </c>
+      <c r="Q21">
+        <v>2.019531441085833</v>
+      </c>
+      <c r="R21">
+        <v>12.117188646515</v>
+      </c>
+      <c r="S21">
+        <v>0.0001354861682525053</v>
+      </c>
+      <c r="T21">
+        <v>9.27924965562367E-05</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>0.5</v>
+      </c>
+      <c r="G22">
+        <v>1.4616105</v>
+      </c>
+      <c r="H22">
+        <v>2.923221</v>
+      </c>
+      <c r="I22">
+        <v>0.002307776358230254</v>
+      </c>
+      <c r="J22">
+        <v>0.001539702001446055</v>
+      </c>
+      <c r="K22">
+        <v>2</v>
+      </c>
+      <c r="L22">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M22">
+        <v>2.676920666666666</v>
+      </c>
+      <c r="N22">
+        <v>8.030761999999999</v>
+      </c>
+      <c r="O22">
+        <v>0.1137411923116975</v>
+      </c>
+      <c r="P22">
+        <v>0.1167596329733683</v>
+      </c>
+      <c r="Q22">
+        <v>3.912615354066999</v>
+      </c>
+      <c r="R22">
+        <v>23.47569212440199</v>
+      </c>
+      <c r="S22">
+        <v>0.0002624892345738562</v>
+      </c>
+      <c r="T22">
+        <v>0.000179775040577202</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>0.5</v>
+      </c>
+      <c r="G23">
+        <v>1.4616105</v>
+      </c>
+      <c r="H23">
+        <v>2.923221</v>
+      </c>
+      <c r="I23">
+        <v>0.002307776358230254</v>
+      </c>
+      <c r="J23">
+        <v>0.001539702001446055</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>10.75807</v>
+      </c>
+      <c r="N23">
+        <v>32.27421</v>
+      </c>
+      <c r="O23">
+        <v>0.4571057050773153</v>
+      </c>
+      <c r="P23">
+        <v>0.4692362834442626</v>
+      </c>
+      <c r="Q23">
+        <v>15.724108071735</v>
+      </c>
+      <c r="R23">
+        <v>94.34464843040999</v>
+      </c>
+      <c r="S23">
+        <v>0.001054897739389599</v>
+      </c>
+      <c r="T23">
+        <v>0.0007224840447702394</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>0.5</v>
+      </c>
+      <c r="G24">
+        <v>1.4616105</v>
+      </c>
+      <c r="H24">
+        <v>2.923221</v>
+      </c>
+      <c r="I24">
+        <v>0.002307776358230254</v>
+      </c>
+      <c r="J24">
+        <v>0.001539702001446055</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>3.564735333333333</v>
+      </c>
+      <c r="N24">
+        <v>10.694206</v>
+      </c>
+      <c r="O24">
+        <v>0.1514640505181089</v>
+      </c>
+      <c r="P24">
+        <v>0.1554835727296604</v>
+      </c>
+      <c r="Q24">
+        <v>5.210254592920999</v>
+      </c>
+      <c r="R24">
+        <v>31.261527557526</v>
+      </c>
+      <c r="S24">
+        <v>0.0003495451549074846</v>
+      </c>
+      <c r="T24">
+        <v>0.0002393983681238414</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>0.5</v>
+      </c>
+      <c r="G25">
+        <v>1.4616105</v>
+      </c>
+      <c r="H25">
+        <v>2.923221</v>
+      </c>
+      <c r="I25">
+        <v>0.002307776358230254</v>
+      </c>
+      <c r="J25">
+        <v>0.001539702001446055</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>4.710187333333333</v>
+      </c>
+      <c r="N25">
+        <v>14.130562</v>
+      </c>
+      <c r="O25">
+        <v>0.2001338067190093</v>
+      </c>
+      <c r="P25">
+        <v>0.2054449170361947</v>
+      </c>
+      <c r="Q25">
+        <v>6.884459263366999</v>
+      </c>
+      <c r="R25">
+        <v>41.30675558020199</v>
+      </c>
+      <c r="S25">
+        <v>0.0004618640676287529</v>
+      </c>
+      <c r="T25">
+        <v>0.0003163239499475477</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>0.5</v>
+      </c>
+      <c r="G26">
+        <v>1.4616105</v>
+      </c>
+      <c r="H26">
+        <v>2.923221</v>
+      </c>
+      <c r="I26">
+        <v>0.002307776358230254</v>
+      </c>
+      <c r="J26">
+        <v>0.001539702001446055</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>1.8252775</v>
+      </c>
+      <c r="N26">
+        <v>3.650555</v>
+      </c>
+      <c r="O26">
+        <v>0.07755524537386906</v>
+      </c>
+      <c r="P26">
+        <v>0.05307559381651387</v>
+      </c>
+      <c r="Q26">
+        <v>2.66784475941375</v>
+      </c>
+      <c r="R26">
+        <v>10.671379037655</v>
+      </c>
+      <c r="S26">
+        <v>0.0001789801617305613</v>
+      </c>
+      <c r="T26">
+        <v>8.172059802722427E-05</v>
       </c>
     </row>
   </sheetData>
